--- a/Master/MasterData/Quest.xlsx
+++ b/Master/MasterData/Quest.xlsx
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">$ENUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN_QUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB_QUEST</t>
+  </si>
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -28,6 +37,9 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">StartStageId</t>
   </si>
   <si>
@@ -41,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -278,10 +293,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A6:F63"/>
+  <dimension ref="A3:G63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,57 +304,77 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
   </cols>
   <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -348,15 +383,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="F9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="G9" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -365,390 +403,452 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="F10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="G10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D63" type="list">
+      <formula1>Sheet1!$B$3:$C$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Master/MasterData/Quest.xlsx
+++ b/Master/MasterData/Quest.xlsx
@@ -296,7 +296,7 @@
   <dimension ref="A3:G63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>3</v>

--- a/Master/MasterData/Quest.xlsx
+++ b/Master/MasterData/Quest.xlsx
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>3</v>

--- a/Master/MasterData/Quest.xlsx
+++ b/Master/MasterData/Quest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Explain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
@@ -64,7 +67,15 @@
     <t xml:space="preserve">メインクエスト１</t>
   </si>
   <si>
+    <t xml:space="preserve">メインクエスト１。
+ＮＰＣに話しかけるだけ。</t>
+  </si>
+  <si>
     <t xml:space="preserve">メインクエスト２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メインクエスト２。
+アンパンをブッ殺せ！</t>
   </si>
   <si>
     <r>
@@ -85,6 +96,10 @@
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">メインクエスト３。
+薬草を集めろ！</t>
   </si>
 </sst>
 </file>
@@ -187,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,6 +225,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -293,10 +312,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:G63"/>
+  <dimension ref="A3:H63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,87 +353,102 @@
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="F9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="G9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="H9" s="4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="F10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="G10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="H10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -422,429 +456,482 @@
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D63" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E8:E63" type="list">
       <formula1>Sheet1!$B$3:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Master/MasterData/Quest.xlsx
+++ b/Master/MasterData/Quest.xlsx
@@ -78,27 +78,10 @@
 アンパンをブッ殺せ！</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">メインクエスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">メインクエスト３。
+    <t xml:space="preserve">サブクエスト１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サブクエスト１。
 薬草を集めろ！</t>
   </si>
 </sst>
@@ -315,12 +298,14 @@
   <dimension ref="A3:H63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,12 +411,12 @@
         <v>2</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="n">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
@@ -440,13 +425,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>7</v>
+        <v>1001</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
